--- a/Nido_Summation_Fos.xlsx
+++ b/Nido_Summation_Fos.xlsx
@@ -387,7 +387,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1CAN</t>
+          <t>1CF</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -397,7 +397,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -406,13 +406,13 @@
         </is>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1CAN</t>
+          <t>1CF</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -422,7 +422,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -431,13 +431,13 @@
         </is>
       </c>
       <c r="E3">
-        <v>75.89</v>
+        <v>70.49666666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1CAN</t>
+          <t>1CF</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -447,7 +447,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -456,13 +456,13 @@
         </is>
       </c>
       <c r="E4">
-        <v>31.39</v>
+        <v>54.33666666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1CAN</t>
+          <t>1CF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="E5">
-        <v>16.5</v>
+        <v>15.27666666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1CAN</t>
+          <t>1CF</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="E6">
-        <v>59.39</v>
+        <v>55.22000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1CAN</t>
+          <t>1CF</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -531,13 +531,13 @@
         </is>
       </c>
       <c r="E7">
-        <v>44.5</v>
+        <v>16.16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1CAN</t>
+          <t>1CF</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="E8">
-        <v>0.4136249835287917</v>
+        <v>0.7707693035131684</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2CAN</t>
+          <t>2CF</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2CAN</t>
+          <t>2CF</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="E10">
-        <v>61.78000000000001</v>
+        <v>76.44333333333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2CAN</t>
+          <t>2CF</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -631,13 +631,13 @@
         </is>
       </c>
       <c r="E11">
-        <v>20.61</v>
+        <v>43.22333333333334</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2CAN</t>
+          <t>2CF</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>11.94333333333333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2CAN</t>
+          <t>2CF</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -681,13 +681,13 @@
         </is>
       </c>
       <c r="E13">
-        <v>59.78000000000001</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2CAN</t>
+          <t>2CF</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -706,13 +706,13 @@
         </is>
       </c>
       <c r="E14">
-        <v>41.17000000000001</v>
+        <v>33.21999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2CAN</t>
+          <t>2CF</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="E15">
-        <v>0.3336031078018776</v>
+        <v>0.5654297300832861</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3CAN</t>
+          <t>3CF</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -762,7 +762,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3CAN</t>
+          <t>3CF</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -781,13 +781,13 @@
         </is>
       </c>
       <c r="E17">
-        <v>67.44666666666667</v>
+        <v>79.44333333333333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3CAN</t>
+          <t>3CF</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -806,13 +806,13 @@
         </is>
       </c>
       <c r="E18">
-        <v>22.89</v>
+        <v>33.77666666666666</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3CAN</t>
+          <t>3CF</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -831,13 +831,13 @@
         </is>
       </c>
       <c r="E19">
-        <v>10.5</v>
+        <v>8.443333333333333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3CAN</t>
+          <t>3CF</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="E20">
-        <v>56.94666666666667</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3CAN</t>
+          <t>3CF</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="E21">
-        <v>44.55666666666667</v>
+        <v>45.66666666666666</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3CAN</t>
+          <t>3CF</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -906,13 +906,13 @@
         </is>
       </c>
       <c r="E22">
-        <v>0.339379262627261</v>
+        <v>0.4251667855494483</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4CAN</t>
+          <t>4CF</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -931,13 +931,13 @@
         </is>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4CAN</t>
+          <t>4CF</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -956,13 +956,13 @@
         </is>
       </c>
       <c r="E24">
-        <v>71.94333333333333</v>
+        <v>80.39</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4CAN</t>
+          <t>4CF</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -981,13 +981,13 @@
         </is>
       </c>
       <c r="E25">
-        <v>58.72333333333334</v>
+        <v>74.44333333333333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4CAN</t>
+          <t>4CF</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1006,13 +1006,13 @@
         </is>
       </c>
       <c r="E26">
-        <v>14</v>
+        <v>23.05666666666667</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4CAN</t>
+          <t>4CF</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1031,13 +1031,13 @@
         </is>
       </c>
       <c r="E27">
-        <v>57.94333333333333</v>
+        <v>57.33333333333333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4CAN</t>
+          <t>4CF</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="E28">
-        <v>13.21999999999999</v>
+        <v>5.946666666666673</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4CAN</t>
+          <t>4CF</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1081,23 +1081,23 @@
         </is>
       </c>
       <c r="E29">
-        <v>0.8162442663207155</v>
+        <v>0.9260272836588298</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5CAN</t>
+          <t>1CG</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1112,17 +1112,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5CAN</t>
+          <t>1CG</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1131,23 +1131,23 @@
         </is>
       </c>
       <c r="E31">
-        <v>80.94666666666667</v>
+        <v>69.61333333333334</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5CAN</t>
+          <t>1CG</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1156,23 +1156,23 @@
         </is>
       </c>
       <c r="E32">
-        <v>61.60999999999999</v>
+        <v>19.83333333333333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5CAN</t>
+          <t>1CG</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1181,23 +1181,23 @@
         </is>
       </c>
       <c r="E33">
-        <v>8.666666666666666</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5CAN</t>
+          <t>1CG</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1206,23 +1206,23 @@
         </is>
       </c>
       <c r="E34">
-        <v>72.28</v>
+        <v>52.11333333333334</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5CAN</t>
+          <t>1CG</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1231,23 +1231,23 @@
         </is>
       </c>
       <c r="E35">
-        <v>19.33666666666668</v>
+        <v>49.78000000000002</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5CAN</t>
+          <t>1CG</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1256,13 +1256,13 @@
         </is>
       </c>
       <c r="E36">
-        <v>0.7611184318893097</v>
+        <v>0.2849071059184064</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1CBN</t>
+          <t>2CG</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1287,7 +1287,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1CBN</t>
+          <t>2CG</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1306,13 +1306,13 @@
         </is>
       </c>
       <c r="E38">
-        <v>45.72333333333334</v>
+        <v>83.83333333333333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1CBN</t>
+          <t>2CG</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1331,13 +1331,13 @@
         </is>
       </c>
       <c r="E39">
-        <v>6.833333333333333</v>
+        <v>29.55666666666667</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1CBN</t>
+          <t>2CG</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1356,13 +1356,13 @@
         </is>
       </c>
       <c r="E40">
-        <v>13.94333333333333</v>
+        <v>45.94333333333333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1CBN</t>
+          <t>2CG</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1381,13 +1381,13 @@
         </is>
       </c>
       <c r="E41">
-        <v>31.78</v>
+        <v>37.89</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1CBN</t>
+          <t>2CG</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="E42">
-        <v>38.89</v>
+        <v>54.27666666666666</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1CBN</t>
+          <t>2CG</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1431,13 +1431,13 @@
         </is>
       </c>
       <c r="E43">
-        <v>0.1494495881023547</v>
+        <v>0.3525646123260438</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2CBN</t>
+          <t>3CG</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1462,7 +1462,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2CBN</t>
+          <t>3CG</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1481,13 +1481,13 @@
         </is>
       </c>
       <c r="E45">
-        <v>51.61333333333334</v>
+        <v>77.05333333333333</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2CBN</t>
+          <t>3CG</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1506,13 +1506,13 @@
         </is>
       </c>
       <c r="E46">
-        <v>25.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2CBN</t>
+          <t>3CG</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1531,13 +1531,13 @@
         </is>
       </c>
       <c r="E47">
-        <v>10.77666666666667</v>
+        <v>11.55666666666667</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2CBN</t>
+          <t>3CG</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1556,13 +1556,13 @@
         </is>
       </c>
       <c r="E48">
-        <v>40.83666666666667</v>
+        <v>65.49666666666666</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2CBN</t>
+          <t>3CG</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1581,13 +1581,13 @@
         </is>
       </c>
       <c r="E49">
-        <v>26.11333333333334</v>
+        <v>50.05333333333333</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2CBN</t>
+          <t>3CG</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="E50">
-        <v>0.4940583828468096</v>
+        <v>0.3504066447482264</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3CBN</t>
+          <t>4CG</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1637,7 +1637,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3CBN</t>
+          <t>4CG</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1656,13 +1656,13 @@
         </is>
       </c>
       <c r="E52">
-        <v>52.05333333333333</v>
+        <v>78.61</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3CBN</t>
+          <t>4CG</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1681,13 +1681,13 @@
         </is>
       </c>
       <c r="E53">
-        <v>16.83333333333333</v>
+        <v>55.83333333333334</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3CBN</t>
+          <t>4CG</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="E54">
-        <v>3.5</v>
+        <v>20.11</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3CBN</t>
+          <t>4CG</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1731,13 +1731,13 @@
         </is>
       </c>
       <c r="E55">
-        <v>48.55333333333333</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3CBN</t>
+          <t>4CG</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1756,13 +1756,13 @@
         </is>
       </c>
       <c r="E56">
-        <v>35.22</v>
+        <v>22.77666666666666</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3CBN</t>
+          <t>4CG</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1781,23 +1781,23 @@
         </is>
       </c>
       <c r="E57">
-        <v>0.3233862704918032</v>
+        <v>0.7102573887970148</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1CC</t>
+          <t>1CH</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1812,17 +1812,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1CC</t>
+          <t>1CH</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1831,23 +1831,23 @@
         </is>
       </c>
       <c r="E59">
-        <v>65.11333333333333</v>
+        <v>69.66333333333334</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1CC</t>
+          <t>1CH</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1856,23 +1856,23 @@
         </is>
       </c>
       <c r="E60">
-        <v>18.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1CC</t>
+          <t>1CH</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1881,23 +1881,23 @@
         </is>
       </c>
       <c r="E61">
-        <v>17.78</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1CC</t>
+          <t>1CH</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1906,23 +1906,23 @@
         </is>
       </c>
       <c r="E62">
-        <v>47.33333333333333</v>
+        <v>58.66333333333334</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1CC</t>
+          <t>1CH</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1931,23 +1931,23 @@
         </is>
       </c>
       <c r="E63">
-        <v>46.61333333333333</v>
+        <v>34.66333333333334</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1CC</t>
+          <t>1CH</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1956,23 +1956,23 @@
         </is>
       </c>
       <c r="E64">
-        <v>0.2841199959045766</v>
+        <v>0.502416383559022</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2CC</t>
+          <t>2CH</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1987,17 +1987,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2CC</t>
+          <t>2CH</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2006,23 +2006,23 @@
         </is>
       </c>
       <c r="E66">
-        <v>56.55666666666667</v>
+        <v>87.55333333333333</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2CC</t>
+          <t>2CH</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2031,23 +2031,23 @@
         </is>
       </c>
       <c r="E67">
-        <v>15.55666666666667</v>
+        <v>31.27666666666667</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2CC</t>
+          <t>2CH</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2056,23 +2056,23 @@
         </is>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>5.890000000000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2CC</t>
+          <t>2CH</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2081,23 +2081,23 @@
         </is>
       </c>
       <c r="E69">
-        <v>56.55666666666667</v>
+        <v>81.66333333333333</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2CC</t>
+          <t>2CH</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2106,23 +2106,23 @@
         </is>
       </c>
       <c r="E70">
-        <v>41.00000000000001</v>
+        <v>56.27666666666666</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2CC</t>
+          <t>2CH</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2131,23 +2131,23 @@
         </is>
       </c>
       <c r="E71">
-        <v>0.2750633582837272</v>
+        <v>0.3572298789309374</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3CC</t>
+          <t>3CH</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2156,23 +2156,23 @@
         </is>
       </c>
       <c r="E72">
-        <v>0.86</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3CC</t>
+          <t>3CH</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2181,23 +2181,23 @@
         </is>
       </c>
       <c r="E73">
-        <v>62.66666666666666</v>
+        <v>45.55666666666667</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3CC</t>
+          <t>3CH</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2206,23 +2206,23 @@
         </is>
       </c>
       <c r="E74">
-        <v>17.22</v>
+        <v>22.89</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3CC</t>
+          <t>3CH</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2231,23 +2231,23 @@
         </is>
       </c>
       <c r="E75">
-        <v>5.890000000000001</v>
+        <v>6.386666666666667</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3CC</t>
+          <t>3CH</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2256,23 +2256,23 @@
         </is>
       </c>
       <c r="E76">
-        <v>56.77666666666666</v>
+        <v>39.17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>3CC</t>
+          <t>3CH</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2281,23 +2281,23 @@
         </is>
       </c>
       <c r="E77">
-        <v>45.44666666666667</v>
+        <v>22.66666666666667</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3CC</t>
+          <t>3CH</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2306,23 +2306,23 @@
         </is>
       </c>
       <c r="E78">
-        <v>0.2747872340425532</v>
+        <v>0.5024511597278115</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>4CC</t>
+          <t>4CH</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2337,17 +2337,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>4CC</t>
+          <t>4CH</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2356,23 +2356,23 @@
         </is>
       </c>
       <c r="E80">
-        <v>41.61</v>
+        <v>84.77666666666666</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>4CC</t>
+          <t>4CH</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2381,23 +2381,23 @@
         </is>
       </c>
       <c r="E81">
-        <v>10.77666666666667</v>
+        <v>60.94333333333333</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>4CC</t>
+          <t>4CH</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2406,23 +2406,23 @@
         </is>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>40.27666666666666</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>4CC</t>
+          <t>4CH</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2431,23 +2431,23 @@
         </is>
       </c>
       <c r="E83">
-        <v>41.61</v>
+        <v>44.49999999999999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>4CC</t>
+          <t>4CH</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2456,23 +2456,23 @@
         </is>
       </c>
       <c r="E84">
-        <v>30.83333333333334</v>
+        <v>23.83333333333333</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>4CC</t>
+          <t>4CH</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2481,13 +2481,13 @@
         </is>
       </c>
       <c r="E85">
-        <v>0.2589922294320275</v>
+        <v>0.7188691857036135</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1CD</t>
+          <t>1CI</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2506,13 +2506,13 @@
         </is>
       </c>
       <c r="E86">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1CD</t>
+          <t>1CI</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2531,13 +2531,13 @@
         </is>
       </c>
       <c r="E87">
-        <v>71.16666666666667</v>
+        <v>49.88666666666666</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1CD</t>
+          <t>1CI</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2556,13 +2556,13 @@
         </is>
       </c>
       <c r="E88">
-        <v>33.44666666666667</v>
+        <v>11.94333333333333</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1CD</t>
+          <t>1CI</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2581,13 +2581,13 @@
         </is>
       </c>
       <c r="E89">
-        <v>6.113333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1CD</t>
+          <t>1CI</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2606,13 +2606,13 @@
         </is>
       </c>
       <c r="E90">
-        <v>65.05333333333334</v>
+        <v>49.88666666666666</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1CD</t>
+          <t>1CI</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="E91">
-        <v>37.72000000000001</v>
+        <v>37.94333333333333</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1CD</t>
+          <t>1CI</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2656,13 +2656,13 @@
         </is>
       </c>
       <c r="E92">
-        <v>0.4699765807962529</v>
+        <v>0.239409327809702</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2CD</t>
+          <t>2CI</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2687,7 +2687,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2CD</t>
+          <t>2CI</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2706,13 +2706,13 @@
         </is>
       </c>
       <c r="E94">
-        <v>66.17</v>
+        <v>87.55666666666667</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2CD</t>
+          <t>2CI</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2731,13 +2731,13 @@
         </is>
       </c>
       <c r="E95">
-        <v>37.83333333333334</v>
+        <v>50.39000000000001</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2CD</t>
+          <t>2CI</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2756,13 +2756,13 @@
         </is>
       </c>
       <c r="E96">
-        <v>7.723333333333334</v>
+        <v>33.11</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2CD</t>
+          <t>2CI</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2772,7 +2772,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2781,13 +2781,13 @@
         </is>
       </c>
       <c r="E97">
-        <v>58.44666666666667</v>
+        <v>54.44666666666667</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2CD</t>
+          <t>2CI</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2797,7 +2797,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2806,13 +2806,13 @@
         </is>
       </c>
       <c r="E98">
-        <v>28.33666666666667</v>
+        <v>37.16666666666666</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2CD</t>
+          <t>2CI</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2831,13 +2831,13 @@
         </is>
       </c>
       <c r="E99">
-        <v>0.5717596090877034</v>
+        <v>0.5755130011040469</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>3CD</t>
+          <t>3CI</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2862,7 +2862,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>3CD</t>
+          <t>3CI</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2881,13 +2881,13 @@
         </is>
       </c>
       <c r="E101">
-        <v>46.55333333333333</v>
+        <v>69.44333333333333</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>3CD</t>
+          <t>3CI</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2906,13 +2906,13 @@
         </is>
       </c>
       <c r="E102">
-        <v>8.833333333333334</v>
+        <v>43.89000000000001</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>3CD</t>
+          <t>3CI</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>5.723333333333334</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>3CD</t>
+          <t>3CI</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2956,13 +2956,13 @@
         </is>
       </c>
       <c r="E104">
-        <v>46.55333333333333</v>
+        <v>63.71999999999999</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>3CD</t>
+          <t>3CI</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2981,13 +2981,13 @@
         </is>
       </c>
       <c r="E105">
-        <v>37.72</v>
+        <v>25.55333333333332</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>3CD</t>
+          <t>3CI</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3006,23 +3006,23 @@
         </is>
       </c>
       <c r="E106">
-        <v>0.1897465272805385</v>
+        <v>0.6320261124177988</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>1CE</t>
+          <t>4CI</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3031,23 +3031,23 @@
         </is>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1CE</t>
+          <t>4CI</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3056,23 +3056,23 @@
         </is>
       </c>
       <c r="E108">
-        <v>67.44666666666667</v>
+        <v>44.44666666666667</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>1CE</t>
+          <t>4CI</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3081,23 +3081,23 @@
         </is>
       </c>
       <c r="E109">
-        <v>22.89</v>
+        <v>15.55666666666667</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>1CE</t>
+          <t>4CI</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3106,23 +3106,23 @@
         </is>
       </c>
       <c r="E110">
-        <v>10.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>1CE</t>
+          <t>4CI</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3131,23 +3131,23 @@
         </is>
       </c>
       <c r="E111">
-        <v>56.94666666666667</v>
+        <v>44.44666666666667</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>1CE</t>
+          <t>4CI</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3156,23 +3156,23 @@
         </is>
       </c>
       <c r="E112">
-        <v>44.55666666666667</v>
+        <v>28.89</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>1CE</t>
+          <t>4CI</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3181,13 +3181,13 @@
         </is>
       </c>
       <c r="E113">
-        <v>0.339379262627261</v>
+        <v>0.3500074996250188</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2CE</t>
+          <t>1CJ</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3206,13 +3206,13 @@
         </is>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2CE</t>
+          <t>1CJ</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3231,13 +3231,13 @@
         </is>
       </c>
       <c r="E115">
-        <v>71.94333333333333</v>
+        <v>50.33000000000001</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2CE</t>
+          <t>1CJ</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3256,13 +3256,13 @@
         </is>
       </c>
       <c r="E116">
-        <v>58.72333333333334</v>
+        <v>41.72</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2CE</t>
+          <t>1CJ</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3281,13 +3281,13 @@
         </is>
       </c>
       <c r="E117">
-        <v>14</v>
+        <v>12.05666666666667</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2CE</t>
+          <t>1CJ</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3297,7 +3297,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3306,13 +3306,13 @@
         </is>
       </c>
       <c r="E118">
-        <v>57.94333333333333</v>
+        <v>38.27333333333334</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2CE</t>
+          <t>1CJ</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3322,7 +3322,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3331,13 +3331,13 @@
         </is>
       </c>
       <c r="E119">
-        <v>13.21999999999999</v>
+        <v>8.610000000000007</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2CE</t>
+          <t>1CJ</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3356,13 +3356,13 @@
         </is>
       </c>
       <c r="E120">
-        <v>0.8162442663207155</v>
+        <v>0.8289290681502085</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>3CE</t>
+          <t>2CJ</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3387,7 +3387,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>3CE</t>
+          <t>2CJ</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3397,7 +3397,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3406,13 +3406,13 @@
         </is>
       </c>
       <c r="E122">
-        <v>55.89000000000001</v>
+        <v>66</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>3CE</t>
+          <t>2CJ</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3431,13 +3431,13 @@
         </is>
       </c>
       <c r="E123">
-        <v>24.44666666666667</v>
+        <v>10.88666666666666</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>3CE</t>
+          <t>2CJ</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3456,13 +3456,13 @@
         </is>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>22.89</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>3CE</t>
+          <t>2CJ</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3481,13 +3481,13 @@
         </is>
       </c>
       <c r="E125">
-        <v>55.89000000000001</v>
+        <v>43.11</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>3CE</t>
+          <t>2CJ</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3506,13 +3506,13 @@
         </is>
       </c>
       <c r="E126">
-        <v>31.44333333333334</v>
+        <v>55.11333333333334</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>3CE</t>
+          <t>2CJ</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3522,7 +3522,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3531,23 +3531,23 @@
         </is>
       </c>
       <c r="E127">
-        <v>0.4374068109977933</v>
+        <v>0.1649494949494949</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>4CE</t>
+          <t>3CJ</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3556,23 +3556,23 @@
         </is>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>4CE</t>
+          <t>3CJ</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3581,23 +3581,23 @@
         </is>
       </c>
       <c r="E129">
-        <v>78.44333333333333</v>
+        <v>71.11</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>4CE</t>
+          <t>3CJ</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3606,23 +3606,23 @@
         </is>
       </c>
       <c r="E130">
-        <v>52.22333333333334</v>
+        <v>12.33333333333333</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>4CE</t>
+          <t>3CJ</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3631,23 +3631,23 @@
         </is>
       </c>
       <c r="E131">
-        <v>34.66666666666666</v>
+        <v>6.390000000000001</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>4CE</t>
+          <t>3CJ</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3656,23 +3656,23 @@
         </is>
       </c>
       <c r="E132">
-        <v>43.77666666666666</v>
+        <v>64.72</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>4CE</t>
+          <t>3CJ</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3681,23 +3681,23 @@
         </is>
       </c>
       <c r="E133">
-        <v>26.21999999999999</v>
+        <v>58.77666666666666</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>4CE</t>
+          <t>3CJ</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3706,23 +3706,23 @@
         </is>
       </c>
       <c r="E134">
-        <v>0.6657459737390049</v>
+        <v>0.1734402100032813</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>5CE</t>
+          <t>4CJ</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3737,17 +3737,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>5CE</t>
+          <t>4CJ</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3756,23 +3756,23 @@
         </is>
       </c>
       <c r="E136">
-        <v>78.05666666666667</v>
+        <v>86</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>5CE</t>
+          <t>4CJ</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3781,23 +3781,23 @@
         </is>
       </c>
       <c r="E137">
-        <v>80.55666666666667</v>
+        <v>27.88666666666667</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>5CE</t>
+          <t>4CJ</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3806,23 +3806,23 @@
         </is>
       </c>
       <c r="E138">
-        <v>7.223333333333334</v>
+        <v>14.39</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>5CE</t>
+          <t>4CJ</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3831,23 +3831,23 @@
         </is>
       </c>
       <c r="E139">
-        <v>70.83333333333334</v>
+        <v>71.61</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>5CE</t>
+          <t>4CJ</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3856,23 +3856,23 @@
         </is>
       </c>
       <c r="E140">
-        <v>-2.5</v>
+        <v>58.11333333333333</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>5CE</t>
+          <t>4CJ</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Adult</t>
+          <t>Adolescent</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3881,13 +3881,13 @@
         </is>
       </c>
       <c r="E141">
-        <v>1.032028013836102</v>
+        <v>0.3242635658914729</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1CF</t>
+          <t>1CAN</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3906,13 +3906,13 @@
         </is>
       </c>
       <c r="E142">
-        <v>1.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1CF</t>
+          <t>1CAN</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3931,13 +3931,13 @@
         </is>
       </c>
       <c r="E143">
-        <v>70.49666666666667</v>
+        <v>75.89</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>1CF</t>
+          <t>1CAN</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3956,13 +3956,13 @@
         </is>
       </c>
       <c r="E144">
-        <v>54.33666666666667</v>
+        <v>31.39</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1CF</t>
+          <t>1CAN</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3981,13 +3981,13 @@
         </is>
       </c>
       <c r="E145">
-        <v>15.27666666666667</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1CF</t>
+          <t>1CAN</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4006,13 +4006,13 @@
         </is>
       </c>
       <c r="E146">
-        <v>55.22000000000001</v>
+        <v>59.39</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>1CF</t>
+          <t>1CAN</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4031,13 +4031,13 @@
         </is>
       </c>
       <c r="E147">
-        <v>16.16</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1CF</t>
+          <t>1CAN</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4056,13 +4056,13 @@
         </is>
       </c>
       <c r="E148">
-        <v>0.7707693035131684</v>
+        <v>0.4136249835287917</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2CF</t>
+          <t>2CAN</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4081,13 +4081,13 @@
         </is>
       </c>
       <c r="E149">
-        <v>4.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2CF</t>
+          <t>2CAN</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4106,13 +4106,13 @@
         </is>
       </c>
       <c r="E150">
-        <v>76.44333333333333</v>
+        <v>61.78000000000001</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2CF</t>
+          <t>2CAN</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4131,13 +4131,13 @@
         </is>
       </c>
       <c r="E151">
-        <v>43.22333333333334</v>
+        <v>20.61</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2CF</t>
+          <t>2CAN</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4156,13 +4156,13 @@
         </is>
       </c>
       <c r="E152">
-        <v>11.94333333333333</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2CF</t>
+          <t>2CAN</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4181,13 +4181,13 @@
         </is>
       </c>
       <c r="E153">
-        <v>64.5</v>
+        <v>59.78000000000001</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2CF</t>
+          <t>2CAN</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4206,13 +4206,13 @@
         </is>
       </c>
       <c r="E154">
-        <v>33.21999999999999</v>
+        <v>41.17000000000001</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2CF</t>
+          <t>2CAN</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4231,13 +4231,13 @@
         </is>
       </c>
       <c r="E155">
-        <v>0.5654297300832861</v>
+        <v>0.3336031078018776</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>3CF</t>
+          <t>3CAN</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4262,7 +4262,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>3CF</t>
+          <t>3CAN</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4272,7 +4272,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4281,13 +4281,13 @@
         </is>
       </c>
       <c r="E157">
-        <v>79.44333333333333</v>
+        <v>67.44666666666667</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>3CF</t>
+          <t>3CAN</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="E158">
-        <v>33.77666666666666</v>
+        <v>22.89</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>3CF</t>
+          <t>3CAN</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4331,13 +4331,13 @@
         </is>
       </c>
       <c r="E159">
-        <v>8.443333333333333</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>3CF</t>
+          <t>3CAN</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4356,13 +4356,13 @@
         </is>
       </c>
       <c r="E160">
-        <v>71</v>
+        <v>56.94666666666667</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>3CF</t>
+          <t>3CAN</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -4372,7 +4372,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4381,13 +4381,13 @@
         </is>
       </c>
       <c r="E161">
-        <v>45.66666666666666</v>
+        <v>44.55666666666667</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>3CF</t>
+          <t>3CAN</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4406,13 +4406,13 @@
         </is>
       </c>
       <c r="E162">
-        <v>0.4251667855494483</v>
+        <v>0.339379262627261</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>4CF</t>
+          <t>4CAN</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -4422,7 +4422,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4431,13 +4431,13 @@
         </is>
       </c>
       <c r="E163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>4CF</t>
+          <t>4CAN</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4447,7 +4447,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4456,13 +4456,13 @@
         </is>
       </c>
       <c r="E164">
-        <v>80.39</v>
+        <v>71.94333333333333</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>4CF</t>
+          <t>4CAN</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -4472,7 +4472,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4481,13 +4481,13 @@
         </is>
       </c>
       <c r="E165">
-        <v>74.44333333333333</v>
+        <v>58.72333333333334</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>4CF</t>
+          <t>4CAN</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4506,13 +4506,13 @@
         </is>
       </c>
       <c r="E166">
-        <v>23.05666666666667</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>4CF</t>
+          <t>4CAN</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4531,13 +4531,13 @@
         </is>
       </c>
       <c r="E167">
-        <v>57.33333333333333</v>
+        <v>57.94333333333333</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>4CF</t>
+          <t>4CAN</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4556,13 +4556,13 @@
         </is>
       </c>
       <c r="E168">
-        <v>5.946666666666673</v>
+        <v>13.21999999999999</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>4CF</t>
+          <t>4CAN</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4581,23 +4581,23 @@
         </is>
       </c>
       <c r="E169">
-        <v>0.9260272836588298</v>
+        <v>0.8162442663207155</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1CG</t>
+          <t>5CAN</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4612,17 +4612,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>1CG</t>
+          <t>5CAN</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4631,23 +4631,23 @@
         </is>
       </c>
       <c r="E171">
-        <v>69.61333333333334</v>
+        <v>80.94666666666667</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1CG</t>
+          <t>5CAN</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4656,23 +4656,23 @@
         </is>
       </c>
       <c r="E172">
-        <v>19.83333333333333</v>
+        <v>61.60999999999999</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>1CG</t>
+          <t>5CAN</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4681,23 +4681,23 @@
         </is>
       </c>
       <c r="E173">
-        <v>17.5</v>
+        <v>8.666666666666666</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>1CG</t>
+          <t>5CAN</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4706,23 +4706,23 @@
         </is>
       </c>
       <c r="E174">
-        <v>52.11333333333334</v>
+        <v>72.28</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>1CG</t>
+          <t>5CAN</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4731,23 +4731,23 @@
         </is>
       </c>
       <c r="E175">
-        <v>49.78000000000002</v>
+        <v>19.33666666666668</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>1CG</t>
+          <t>5CAN</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4756,13 +4756,13 @@
         </is>
       </c>
       <c r="E176">
-        <v>0.2849071059184064</v>
+        <v>0.7611184318893097</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2CG</t>
+          <t>1CBN</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -4772,7 +4772,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -4787,7 +4787,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2CG</t>
+          <t>1CBN</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4806,13 +4806,13 @@
         </is>
       </c>
       <c r="E178">
-        <v>83.83333333333333</v>
+        <v>45.72333333333334</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2CG</t>
+          <t>1CBN</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4831,13 +4831,13 @@
         </is>
       </c>
       <c r="E179">
-        <v>29.55666666666667</v>
+        <v>6.833333333333333</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2CG</t>
+          <t>1CBN</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4856,13 +4856,13 @@
         </is>
       </c>
       <c r="E180">
-        <v>45.94333333333333</v>
+        <v>13.94333333333333</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2CG</t>
+          <t>1CBN</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4881,13 +4881,13 @@
         </is>
       </c>
       <c r="E181">
-        <v>37.89</v>
+        <v>31.78</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2CG</t>
+          <t>1CBN</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4906,13 +4906,13 @@
         </is>
       </c>
       <c r="E182">
-        <v>54.27666666666666</v>
+        <v>38.89</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2CG</t>
+          <t>1CBN</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -4931,13 +4931,13 @@
         </is>
       </c>
       <c r="E183">
-        <v>0.3525646123260438</v>
+        <v>0.1494495881023547</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>3CG</t>
+          <t>2CBN</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -4962,7 +4962,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>3CG</t>
+          <t>2CBN</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -4981,13 +4981,13 @@
         </is>
       </c>
       <c r="E185">
-        <v>77.05333333333333</v>
+        <v>51.61333333333334</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>3CG</t>
+          <t>2CBN</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5006,13 +5006,13 @@
         </is>
       </c>
       <c r="E186">
-        <v>27</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>3CG</t>
+          <t>2CBN</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -5022,7 +5022,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5031,13 +5031,13 @@
         </is>
       </c>
       <c r="E187">
-        <v>11.55666666666667</v>
+        <v>10.77666666666667</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>3CG</t>
+          <t>2CBN</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5056,13 +5056,13 @@
         </is>
       </c>
       <c r="E188">
-        <v>65.49666666666666</v>
+        <v>40.83666666666667</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>3CG</t>
+          <t>2CBN</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5081,13 +5081,13 @@
         </is>
       </c>
       <c r="E189">
-        <v>50.05333333333333</v>
+        <v>26.11333333333334</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>3CG</t>
+          <t>2CBN</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -5097,7 +5097,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5106,13 +5106,13 @@
         </is>
       </c>
       <c r="E190">
-        <v>0.3504066447482264</v>
+        <v>0.4940583828468096</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>4CG</t>
+          <t>3CBN</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -5122,7 +5122,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5137,7 +5137,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>4CG</t>
+          <t>3CBN</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -5147,7 +5147,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5156,13 +5156,13 @@
         </is>
       </c>
       <c r="E192">
-        <v>78.61</v>
+        <v>52.05333333333333</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>4CG</t>
+          <t>3CBN</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5181,13 +5181,13 @@
         </is>
       </c>
       <c r="E193">
-        <v>55.83333333333334</v>
+        <v>16.83333333333333</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>4CG</t>
+          <t>3CBN</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -5197,7 +5197,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5206,13 +5206,13 @@
         </is>
       </c>
       <c r="E194">
-        <v>20.11</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>4CG</t>
+          <t>3CBN</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -5222,7 +5222,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5231,13 +5231,13 @@
         </is>
       </c>
       <c r="E195">
-        <v>58.5</v>
+        <v>48.55333333333333</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>4CG</t>
+          <t>3CBN</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5256,13 +5256,13 @@
         </is>
       </c>
       <c r="E196">
-        <v>22.77666666666666</v>
+        <v>35.22</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>4CG</t>
+          <t>3CBN</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5281,23 +5281,23 @@
         </is>
       </c>
       <c r="E197">
-        <v>0.7102573887970148</v>
+        <v>0.3233862704918032</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>1CH</t>
+          <t>1CC</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5312,17 +5312,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>1CH</t>
+          <t>1CC</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5331,23 +5331,23 @@
         </is>
       </c>
       <c r="E199">
-        <v>69.66333333333334</v>
+        <v>65.11333333333333</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>1CH</t>
+          <t>1CC</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5356,23 +5356,23 @@
         </is>
       </c>
       <c r="E200">
-        <v>35</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>1CH</t>
+          <t>1CC</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5381,23 +5381,23 @@
         </is>
       </c>
       <c r="E201">
-        <v>11</v>
+        <v>17.78</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>1CH</t>
+          <t>1CC</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5406,23 +5406,23 @@
         </is>
       </c>
       <c r="E202">
-        <v>58.66333333333334</v>
+        <v>47.33333333333333</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>1CH</t>
+          <t>1CC</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5431,23 +5431,23 @@
         </is>
       </c>
       <c r="E203">
-        <v>34.66333333333334</v>
+        <v>46.61333333333333</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>1CH</t>
+          <t>1CC</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5456,23 +5456,23 @@
         </is>
       </c>
       <c r="E204">
-        <v>0.502416383559022</v>
+        <v>0.2841199959045766</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2CH</t>
+          <t>2CC</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5487,17 +5487,17 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2CH</t>
+          <t>2CC</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5506,23 +5506,23 @@
         </is>
       </c>
       <c r="E206">
-        <v>87.55333333333333</v>
+        <v>56.55666666666667</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2CH</t>
+          <t>2CC</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5531,23 +5531,23 @@
         </is>
       </c>
       <c r="E207">
-        <v>31.27666666666667</v>
+        <v>15.55666666666667</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2CH</t>
+          <t>2CC</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5556,23 +5556,23 @@
         </is>
       </c>
       <c r="E208">
-        <v>5.890000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2CH</t>
+          <t>2CC</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5581,23 +5581,23 @@
         </is>
       </c>
       <c r="E209">
-        <v>81.66333333333333</v>
+        <v>56.55666666666667</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2CH</t>
+          <t>2CC</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5606,23 +5606,23 @@
         </is>
       </c>
       <c r="E210">
-        <v>56.27666666666666</v>
+        <v>41.00000000000001</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2CH</t>
+          <t>2CC</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -5631,23 +5631,23 @@
         </is>
       </c>
       <c r="E211">
-        <v>0.3572298789309374</v>
+        <v>0.2750633582837272</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>3CH</t>
+          <t>3CC</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -5656,23 +5656,23 @@
         </is>
       </c>
       <c r="E212">
-        <v>1.33</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>3CH</t>
+          <t>3CC</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5681,23 +5681,23 @@
         </is>
       </c>
       <c r="E213">
-        <v>45.55666666666667</v>
+        <v>62.66666666666666</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>3CH</t>
+          <t>3CC</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5706,23 +5706,23 @@
         </is>
       </c>
       <c r="E214">
-        <v>22.89</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>3CH</t>
+          <t>3CC</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5731,23 +5731,23 @@
         </is>
       </c>
       <c r="E215">
-        <v>6.386666666666667</v>
+        <v>5.890000000000001</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>3CH</t>
+          <t>3CC</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5756,23 +5756,23 @@
         </is>
       </c>
       <c r="E216">
-        <v>39.17</v>
+        <v>56.77666666666666</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>3CH</t>
+          <t>3CC</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5781,23 +5781,23 @@
         </is>
       </c>
       <c r="E217">
-        <v>22.66666666666667</v>
+        <v>45.44666666666667</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>3CH</t>
+          <t>3CC</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5806,23 +5806,23 @@
         </is>
       </c>
       <c r="E218">
-        <v>0.5024511597278115</v>
+        <v>0.2747872340425532</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>4CH</t>
+          <t>4CC</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5837,17 +5837,17 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>4CH</t>
+          <t>4CC</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -5856,23 +5856,23 @@
         </is>
       </c>
       <c r="E220">
-        <v>84.77666666666666</v>
+        <v>41.61</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>4CH</t>
+          <t>4CC</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -5881,23 +5881,23 @@
         </is>
       </c>
       <c r="E221">
-        <v>60.94333333333333</v>
+        <v>10.77666666666667</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>4CH</t>
+          <t>4CC</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -5906,23 +5906,23 @@
         </is>
       </c>
       <c r="E222">
-        <v>40.27666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>4CH</t>
+          <t>4CC</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -5931,23 +5931,23 @@
         </is>
       </c>
       <c r="E223">
-        <v>44.49999999999999</v>
+        <v>41.61</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>4CH</t>
+          <t>4CC</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -5956,23 +5956,23 @@
         </is>
       </c>
       <c r="E224">
-        <v>23.83333333333333</v>
+        <v>30.83333333333334</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>4CH</t>
+          <t>4CC</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -5981,13 +5981,13 @@
         </is>
       </c>
       <c r="E225">
-        <v>0.7188691857036135</v>
+        <v>0.2589922294320275</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>1CI</t>
+          <t>1CD</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -5997,7 +5997,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6006,13 +6006,13 @@
         </is>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>1CI</t>
+          <t>1CD</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -6022,7 +6022,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -6031,13 +6031,13 @@
         </is>
       </c>
       <c r="E227">
-        <v>49.88666666666666</v>
+        <v>71.16666666666667</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>1CI</t>
+          <t>1CD</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -6047,7 +6047,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -6056,13 +6056,13 @@
         </is>
       </c>
       <c r="E228">
-        <v>11.94333333333333</v>
+        <v>33.44666666666667</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>1CI</t>
+          <t>1CD</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -6081,13 +6081,13 @@
         </is>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>6.113333333333333</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>1CI</t>
+          <t>1CD</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -6097,7 +6097,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6106,13 +6106,13 @@
         </is>
       </c>
       <c r="E230">
-        <v>49.88666666666666</v>
+        <v>65.05333333333334</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>1CI</t>
+          <t>1CD</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -6122,7 +6122,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6131,13 +6131,13 @@
         </is>
       </c>
       <c r="E231">
-        <v>37.94333333333333</v>
+        <v>37.72000000000001</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>1CI</t>
+          <t>1CD</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -6147,7 +6147,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -6156,13 +6156,13 @@
         </is>
       </c>
       <c r="E232">
-        <v>0.239409327809702</v>
+        <v>0.4699765807962529</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2CI</t>
+          <t>2CD</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -6187,7 +6187,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2CI</t>
+          <t>2CD</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -6197,7 +6197,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6206,13 +6206,13 @@
         </is>
       </c>
       <c r="E234">
-        <v>87.55666666666667</v>
+        <v>66.17</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2CI</t>
+          <t>2CD</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -6222,7 +6222,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -6231,13 +6231,13 @@
         </is>
       </c>
       <c r="E235">
-        <v>50.39000000000001</v>
+        <v>37.83333333333334</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2CI</t>
+          <t>2CD</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -6256,13 +6256,13 @@
         </is>
       </c>
       <c r="E236">
-        <v>33.11</v>
+        <v>7.723333333333334</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2CI</t>
+          <t>2CD</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="E237">
-        <v>54.44666666666667</v>
+        <v>58.44666666666667</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2CI</t>
+          <t>2CD</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -6297,7 +6297,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -6306,13 +6306,13 @@
         </is>
       </c>
       <c r="E238">
-        <v>37.16666666666666</v>
+        <v>28.33666666666667</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2CI</t>
+          <t>2CD</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -6322,7 +6322,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -6331,13 +6331,13 @@
         </is>
       </c>
       <c r="E239">
-        <v>0.5755130011040469</v>
+        <v>0.5717596090877034</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>3CI</t>
+          <t>3CD</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -6347,7 +6347,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -6362,7 +6362,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>3CI</t>
+          <t>3CD</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -6381,13 +6381,13 @@
         </is>
       </c>
       <c r="E241">
-        <v>69.44333333333333</v>
+        <v>46.55333333333333</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>3CI</t>
+          <t>3CD</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -6397,7 +6397,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -6406,13 +6406,13 @@
         </is>
       </c>
       <c r="E242">
-        <v>43.89000000000001</v>
+        <v>8.833333333333334</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>3CI</t>
+          <t>3CD</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -6422,7 +6422,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -6431,13 +6431,13 @@
         </is>
       </c>
       <c r="E243">
-        <v>5.723333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>3CI</t>
+          <t>3CD</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -6456,13 +6456,13 @@
         </is>
       </c>
       <c r="E244">
-        <v>63.71999999999999</v>
+        <v>46.55333333333333</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>3CI</t>
+          <t>3CD</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -6481,13 +6481,13 @@
         </is>
       </c>
       <c r="E245">
-        <v>25.55333333333332</v>
+        <v>37.72</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>3CI</t>
+          <t>3CD</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -6497,7 +6497,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -6506,23 +6506,23 @@
         </is>
       </c>
       <c r="E246">
-        <v>0.6320261124177988</v>
+        <v>0.1897465272805385</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>4CI</t>
+          <t>1CE</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -6531,23 +6531,23 @@
         </is>
       </c>
       <c r="E247">
-        <v>1.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>4CI</t>
+          <t>1CE</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -6556,23 +6556,23 @@
         </is>
       </c>
       <c r="E248">
-        <v>44.44666666666667</v>
+        <v>67.44666666666667</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>4CI</t>
+          <t>1CE</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -6581,23 +6581,23 @@
         </is>
       </c>
       <c r="E249">
-        <v>15.55666666666667</v>
+        <v>22.89</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>4CI</t>
+          <t>1CE</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -6606,23 +6606,23 @@
         </is>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>4CI</t>
+          <t>1CE</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -6631,23 +6631,23 @@
         </is>
       </c>
       <c r="E251">
-        <v>44.44666666666667</v>
+        <v>56.94666666666667</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>4CI</t>
+          <t>1CE</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -6656,23 +6656,23 @@
         </is>
       </c>
       <c r="E252">
-        <v>28.89</v>
+        <v>44.55666666666667</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>4CI</t>
+          <t>1CE</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -6681,13 +6681,13 @@
         </is>
       </c>
       <c r="E253">
-        <v>0.3500074996250188</v>
+        <v>0.339379262627261</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>1CJ</t>
+          <t>2CE</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -6706,13 +6706,13 @@
         </is>
       </c>
       <c r="E254">
-        <v>4.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>1CJ</t>
+          <t>2CE</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -6722,7 +6722,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -6731,13 +6731,13 @@
         </is>
       </c>
       <c r="E255">
-        <v>50.33000000000001</v>
+        <v>71.94333333333333</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>1CJ</t>
+          <t>2CE</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -6747,7 +6747,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -6756,13 +6756,13 @@
         </is>
       </c>
       <c r="E256">
-        <v>41.72</v>
+        <v>58.72333333333334</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>1CJ</t>
+          <t>2CE</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -6772,7 +6772,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -6781,13 +6781,13 @@
         </is>
       </c>
       <c r="E257">
-        <v>12.05666666666667</v>
+        <v>14</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>1CJ</t>
+          <t>2CE</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -6797,7 +6797,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -6806,13 +6806,13 @@
         </is>
       </c>
       <c r="E258">
-        <v>38.27333333333334</v>
+        <v>57.94333333333333</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>1CJ</t>
+          <t>2CE</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -6822,7 +6822,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -6831,13 +6831,13 @@
         </is>
       </c>
       <c r="E259">
-        <v>8.610000000000007</v>
+        <v>13.21999999999999</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>1CJ</t>
+          <t>2CE</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -6847,7 +6847,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -6856,13 +6856,13 @@
         </is>
       </c>
       <c r="E260">
-        <v>0.8289290681502085</v>
+        <v>0.8162442663207155</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2CJ</t>
+          <t>3CE</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -6872,7 +6872,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -6887,7 +6887,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2CJ</t>
+          <t>3CE</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -6906,13 +6906,13 @@
         </is>
       </c>
       <c r="E262">
-        <v>66</v>
+        <v>55.89000000000001</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2CJ</t>
+          <t>3CE</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -6922,7 +6922,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -6931,13 +6931,13 @@
         </is>
       </c>
       <c r="E263">
-        <v>10.88666666666666</v>
+        <v>24.44666666666667</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2CJ</t>
+          <t>3CE</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -6947,7 +6947,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -6956,13 +6956,13 @@
         </is>
       </c>
       <c r="E264">
-        <v>22.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2CJ</t>
+          <t>3CE</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -6972,7 +6972,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -6981,13 +6981,13 @@
         </is>
       </c>
       <c r="E265">
-        <v>43.11</v>
+        <v>55.89000000000001</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2CJ</t>
+          <t>3CE</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -7006,13 +7006,13 @@
         </is>
       </c>
       <c r="E266">
-        <v>55.11333333333334</v>
+        <v>31.44333333333334</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2CJ</t>
+          <t>3CE</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -7022,7 +7022,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -7031,23 +7031,23 @@
         </is>
       </c>
       <c r="E267">
-        <v>0.1649494949494949</v>
+        <v>0.4374068109977933</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>3CJ</t>
+          <t>4CE</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -7056,23 +7056,23 @@
         </is>
       </c>
       <c r="E268">
-        <v>3.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>3CJ</t>
+          <t>4CE</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -7081,23 +7081,23 @@
         </is>
       </c>
       <c r="E269">
-        <v>71.11</v>
+        <v>78.44333333333333</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>3CJ</t>
+          <t>4CE</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -7106,23 +7106,23 @@
         </is>
       </c>
       <c r="E270">
-        <v>12.33333333333333</v>
+        <v>52.22333333333334</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>3CJ</t>
+          <t>4CE</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -7131,23 +7131,23 @@
         </is>
       </c>
       <c r="E271">
-        <v>6.390000000000001</v>
+        <v>34.66666666666666</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>3CJ</t>
+          <t>4CE</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -7156,23 +7156,23 @@
         </is>
       </c>
       <c r="E272">
-        <v>64.72</v>
+        <v>43.77666666666666</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>3CJ</t>
+          <t>4CE</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -7181,23 +7181,23 @@
         </is>
       </c>
       <c r="E273">
-        <v>58.77666666666666</v>
+        <v>26.21999999999999</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>3CJ</t>
+          <t>4CE</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -7206,23 +7206,23 @@
         </is>
       </c>
       <c r="E274">
-        <v>0.1734402100032813</v>
+        <v>0.6657459737390049</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>4CJ</t>
+          <t>5CE</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -7237,17 +7237,17 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>4CJ</t>
+          <t>5CE</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -7256,23 +7256,23 @@
         </is>
       </c>
       <c r="E276">
-        <v>86</v>
+        <v>78.05666666666667</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>4CJ</t>
+          <t>5CE</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -7281,23 +7281,23 @@
         </is>
       </c>
       <c r="E277">
-        <v>27.88666666666667</v>
+        <v>80.55666666666667</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>4CJ</t>
+          <t>5CE</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -7306,23 +7306,23 @@
         </is>
       </c>
       <c r="E278">
-        <v>14.39</v>
+        <v>7.223333333333334</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>4CJ</t>
+          <t>5CE</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -7331,23 +7331,23 @@
         </is>
       </c>
       <c r="E279">
-        <v>71.61</v>
+        <v>70.83333333333334</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>4CJ</t>
+          <t>5CE</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -7356,23 +7356,23 @@
         </is>
       </c>
       <c r="E280">
-        <v>58.11333333333333</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>4CJ</t>
+          <t>5CE</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Adolescent</t>
+          <t>Adult</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -7381,7 +7381,7 @@
         </is>
       </c>
       <c r="E281">
-        <v>0.3242635658914729</v>
+        <v>1.032028013836102</v>
       </c>
     </row>
   </sheetData>
